--- a/Code/Results/Cases/Case_0_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.526930805876011</v>
+        <v>3.921224538834813</v>
       </c>
       <c r="D2">
-        <v>8.876772986497068</v>
+        <v>10.33175560687762</v>
       </c>
       <c r="E2">
-        <v>11.68768361529996</v>
+        <v>14.14541887378391</v>
       </c>
       <c r="F2">
-        <v>17.47104849517853</v>
+        <v>27.50182019754018</v>
       </c>
       <c r="G2">
-        <v>15.96243577362765</v>
+        <v>25.37668772468433</v>
       </c>
       <c r="H2">
-        <v>7.303580302069303</v>
+        <v>13.56558100888579</v>
       </c>
       <c r="I2">
-        <v>11.11285462197267</v>
+        <v>18.88446172054069</v>
       </c>
       <c r="J2">
-        <v>6.21188677683207</v>
+        <v>9.724607741583178</v>
       </c>
       <c r="K2">
-        <v>24.87738487661466</v>
+        <v>16.36480086728358</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.17448447264598</v>
+        <v>20.17521814148836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.205154089345374</v>
+        <v>3.769521156566517</v>
       </c>
       <c r="D3">
-        <v>8.451644034459756</v>
+        <v>10.24728290284371</v>
       </c>
       <c r="E3">
-        <v>11.17295579314062</v>
+        <v>14.06860491544868</v>
       </c>
       <c r="F3">
-        <v>17.29190137967885</v>
+        <v>27.62822780942313</v>
       </c>
       <c r="G3">
-        <v>15.88962496313365</v>
+        <v>25.5885374952674</v>
       </c>
       <c r="H3">
-        <v>7.447606613948333</v>
+        <v>13.64075277874275</v>
       </c>
       <c r="I3">
-        <v>11.14772087189652</v>
+        <v>18.99485909703471</v>
       </c>
       <c r="J3">
-        <v>6.10421236637772</v>
+        <v>9.732238681792538</v>
       </c>
       <c r="K3">
-        <v>23.29580770220289</v>
+        <v>15.59808833808076</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.35232841934276</v>
+        <v>20.31402466094038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.997032043751899</v>
+        <v>3.672465037595984</v>
       </c>
       <c r="D4">
-        <v>8.182235496860667</v>
+        <v>10.19646961889086</v>
       </c>
       <c r="E4">
-        <v>10.85063779045357</v>
+        <v>14.02399882712069</v>
       </c>
       <c r="F4">
-        <v>17.20795728749436</v>
+        <v>27.71472700142449</v>
       </c>
       <c r="G4">
-        <v>15.89108968093603</v>
+        <v>25.73069384691065</v>
       </c>
       <c r="H4">
-        <v>7.543144949825409</v>
+        <v>13.68974684905275</v>
       </c>
       <c r="I4">
-        <v>11.18724579340114</v>
+        <v>19.06835994336339</v>
       </c>
       <c r="J4">
-        <v>6.040799915277576</v>
+        <v>9.738524504181113</v>
       </c>
       <c r="K4">
-        <v>22.26852542746113</v>
+        <v>15.10632208220523</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.48017438699511</v>
+        <v>20.40514592377729</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.909590094812392</v>
+        <v>3.631966836922608</v>
       </c>
       <c r="D5">
-        <v>8.070475355073608</v>
+        <v>10.17604519987967</v>
       </c>
       <c r="E5">
-        <v>10.71789816911637</v>
+        <v>14.00647937647123</v>
       </c>
       <c r="F5">
-        <v>17.1800861768649</v>
+        <v>27.75219929036929</v>
       </c>
       <c r="G5">
-        <v>15.9026492287355</v>
+        <v>25.79163615331798</v>
       </c>
       <c r="H5">
-        <v>7.583779437573164</v>
+        <v>13.71042609611806</v>
       </c>
       <c r="I5">
-        <v>11.20766469454318</v>
+        <v>19.09974423156537</v>
       </c>
       <c r="J5">
-        <v>6.015651539106146</v>
+        <v>9.741488669719246</v>
       </c>
       <c r="K5">
-        <v>21.83578136280665</v>
+        <v>14.90084397973922</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.53665247712829</v>
+        <v>20.44375695808005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.894912355956963</v>
+        <v>3.625186088731983</v>
       </c>
       <c r="D6">
-        <v>8.051802750135257</v>
+        <v>10.17267130066281</v>
       </c>
       <c r="E6">
-        <v>10.69577864375895</v>
+        <v>14.00361043018565</v>
       </c>
       <c r="F6">
-        <v>17.17583414472425</v>
+        <v>27.75855548538901</v>
       </c>
       <c r="G6">
-        <v>15.90521074957829</v>
+        <v>25.80193678994758</v>
       </c>
       <c r="H6">
-        <v>7.590627223490236</v>
+        <v>13.71390298128276</v>
       </c>
       <c r="I6">
-        <v>11.21130852744881</v>
+        <v>19.10504190810152</v>
       </c>
       <c r="J6">
-        <v>6.011517880329786</v>
+        <v>9.742005189766493</v>
       </c>
       <c r="K6">
-        <v>21.76307257504959</v>
+        <v>14.86642425886728</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.54628645325734</v>
+        <v>20.45025747874125</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.995863386783796</v>
+        <v>3.67192264815723</v>
       </c>
       <c r="D7">
-        <v>8.180736061803257</v>
+        <v>10.19619300174851</v>
       </c>
       <c r="E7">
-        <v>10.84885299287798</v>
+        <v>14.02375987121999</v>
       </c>
       <c r="F7">
-        <v>17.20755605330489</v>
+        <v>27.71522337892554</v>
       </c>
       <c r="G7">
-        <v>15.89120208856733</v>
+        <v>25.73150357201687</v>
       </c>
       <c r="H7">
-        <v>7.543686176263731</v>
+        <v>13.69002284651594</v>
       </c>
       <c r="I7">
-        <v>11.1875040332117</v>
+        <v>19.0687774114051</v>
       </c>
       <c r="J7">
-        <v>6.040457933642167</v>
+        <v>9.738562849474816</v>
       </c>
       <c r="K7">
-        <v>22.26274642430467</v>
+        <v>15.10357120825168</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.48091873223385</v>
+        <v>20.40566066446528</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.418182864547489</v>
+        <v>3.869748867915773</v>
       </c>
       <c r="D8">
-        <v>8.732000284925627</v>
+        <v>10.30242147084157</v>
       </c>
       <c r="E8">
-        <v>11.51161082499608</v>
+        <v>14.11841158619497</v>
       </c>
       <c r="F8">
-        <v>17.40375082616353</v>
+        <v>27.5435551211712</v>
       </c>
       <c r="G8">
-        <v>15.92737916915323</v>
+        <v>25.44721123539117</v>
       </c>
       <c r="H8">
-        <v>7.351712096373049</v>
+        <v>13.59091117271554</v>
       </c>
       <c r="I8">
-        <v>11.12097088612269</v>
+        <v>18.92133708111048</v>
       </c>
       <c r="J8">
-        <v>6.174208900390831</v>
+        <v>9.726906883074399</v>
       </c>
       <c r="K8">
-        <v>24.34371862246995</v>
+        <v>16.10490843713621</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.23174258645856</v>
+        <v>20.22185325061334</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.16202821406719</v>
+        <v>4.225307269550791</v>
       </c>
       <c r="D9">
-        <v>9.74178443145118</v>
+        <v>10.51830241977484</v>
       </c>
       <c r="E9">
-        <v>12.75462745043938</v>
+        <v>14.32363393584636</v>
       </c>
       <c r="F9">
-        <v>18.00329096788199</v>
+        <v>27.27788179471771</v>
       </c>
       <c r="G9">
-        <v>16.38948444462374</v>
+        <v>24.98669011797944</v>
       </c>
       <c r="H9">
-        <v>7.035905629149321</v>
+        <v>13.41907162908514</v>
       </c>
       <c r="I9">
-        <v>11.14485647790272</v>
+        <v>18.677803195653</v>
       </c>
       <c r="J9">
-        <v>6.457265515998607</v>
+        <v>9.716735483961573</v>
       </c>
       <c r="K9">
-        <v>27.97925024952983</v>
+        <v>17.89457083493884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.9058294533006</v>
+        <v>19.90833322528667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.656729629928821</v>
+        <v>4.465266375492308</v>
       </c>
       <c r="D10">
-        <v>10.43518171156273</v>
+        <v>10.68044327352582</v>
       </c>
       <c r="E10">
-        <v>13.62581307926587</v>
+        <v>14.48539189574181</v>
       </c>
       <c r="F10">
-        <v>18.58357071153675</v>
+        <v>27.12658276840904</v>
       </c>
       <c r="G10">
-        <v>16.99408541664184</v>
+        <v>24.70901319003152</v>
       </c>
       <c r="H10">
-        <v>6.847515937420392</v>
+        <v>13.30654529988185</v>
       </c>
       <c r="I10">
-        <v>11.27029562315374</v>
+        <v>18.5270027807821</v>
       </c>
       <c r="J10">
-        <v>6.676996623236127</v>
+        <v>9.716974513741858</v>
       </c>
       <c r="K10">
-        <v>30.38081437968989</v>
+        <v>19.09544002879056</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.78685249002819</v>
+        <v>19.70682612443444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.870545754332438</v>
+        <v>4.569559659042902</v>
       </c>
       <c r="D11">
-        <v>10.7393590129839</v>
+        <v>10.75473844097327</v>
       </c>
       <c r="E11">
-        <v>14.01185929259843</v>
+        <v>14.56114165841566</v>
       </c>
       <c r="F11">
-        <v>18.8791932442813</v>
+        <v>27.06741035260248</v>
       </c>
       <c r="G11">
-        <v>17.33015360438182</v>
+        <v>24.59619783636018</v>
       </c>
       <c r="H11">
-        <v>6.772977553459358</v>
+        <v>13.25833437486849</v>
       </c>
       <c r="I11">
-        <v>11.35345789951996</v>
+        <v>18.46457718923851</v>
       </c>
       <c r="J11">
-        <v>6.779328674080533</v>
+        <v>9.718750898245553</v>
       </c>
       <c r="K11">
-        <v>31.41551574638764</v>
+        <v>19.61575993144636</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.76366644282843</v>
+        <v>19.62146880934766</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.949903265579442</v>
+        <v>4.608336150573902</v>
       </c>
       <c r="D12">
-        <v>10.85288157229207</v>
+        <v>10.78292942104152</v>
       </c>
       <c r="E12">
-        <v>14.15649998797031</v>
+        <v>14.59011781029012</v>
       </c>
       <c r="F12">
-        <v>18.99575670548261</v>
+        <v>27.04640138421247</v>
       </c>
       <c r="G12">
-        <v>17.46632550821566</v>
+        <v>24.55544665649753</v>
       </c>
       <c r="H12">
-        <v>6.746515664704549</v>
+        <v>13.24050657589022</v>
       </c>
       <c r="I12">
-        <v>11.38889662397625</v>
+        <v>18.44183201445918</v>
       </c>
       <c r="J12">
-        <v>6.818406231455219</v>
+        <v>9.719662556557159</v>
       </c>
       <c r="K12">
-        <v>31.79908718587902</v>
+        <v>19.80897884561086</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.75973242170199</v>
+        <v>19.59005817820074</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.932883711190096</v>
+        <v>4.600017083388022</v>
       </c>
       <c r="D13">
-        <v>10.82850699401049</v>
+        <v>10.77685577334964</v>
       </c>
       <c r="E13">
-        <v>14.12541875528818</v>
+        <v>14.58386464269635</v>
       </c>
       <c r="F13">
-        <v>18.97044648537274</v>
+        <v>27.05086369458545</v>
       </c>
       <c r="G13">
-        <v>17.43660107568521</v>
+        <v>24.56413511005557</v>
       </c>
       <c r="H13">
-        <v>6.752133548111253</v>
+        <v>13.24432704065868</v>
       </c>
       <c r="I13">
-        <v>11.38108585366389</v>
+        <v>18.44669073354749</v>
       </c>
       <c r="J13">
-        <v>6.809975873436469</v>
+        <v>9.719455600413051</v>
       </c>
       <c r="K13">
-        <v>31.71684395660279</v>
+        <v>19.76753650873419</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.76035789114743</v>
+        <v>19.59678236113111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.877106776350248</v>
+        <v>4.572764287055607</v>
       </c>
       <c r="D14">
-        <v>10.74873211986128</v>
+        <v>10.75705670236357</v>
       </c>
       <c r="E14">
-        <v>14.02379031008447</v>
+        <v>14.5635198208239</v>
       </c>
       <c r="F14">
-        <v>18.88869014488417</v>
+        <v>27.0656538513017</v>
       </c>
       <c r="G14">
-        <v>17.34117755749458</v>
+        <v>24.59280557913457</v>
       </c>
       <c r="H14">
-        <v>6.770764195724639</v>
+        <v>13.25685907811916</v>
       </c>
       <c r="I14">
-        <v>11.35629332514072</v>
+        <v>18.46268797665179</v>
       </c>
       <c r="J14">
-        <v>6.782537141793831</v>
+        <v>9.718821116583783</v>
       </c>
       <c r="K14">
-        <v>31.44723731036054</v>
+        <v>19.63173303980304</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.76324341079066</v>
+        <v>19.61886632377392</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.842732300764835</v>
+        <v>4.555977299811577</v>
       </c>
       <c r="D15">
-        <v>10.69965004369628</v>
+        <v>10.7449360278351</v>
       </c>
       <c r="E15">
-        <v>13.96133673201591</v>
+        <v>14.55109537194022</v>
       </c>
       <c r="F15">
-        <v>18.83921496522715</v>
+        <v>27.07489564541219</v>
       </c>
       <c r="G15">
-        <v>17.28389055444927</v>
+        <v>24.61062439411488</v>
       </c>
       <c r="H15">
-        <v>6.782410735295224</v>
+        <v>13.2645911467296</v>
       </c>
       <c r="I15">
-        <v>11.34162659745615</v>
+        <v>18.47260336423964</v>
       </c>
       <c r="J15">
-        <v>6.765772247701694</v>
+        <v>9.718463572523344</v>
       </c>
       <c r="K15">
-        <v>31.28102335197222</v>
+        <v>19.54805050748926</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.76565367436093</v>
+        <v>19.63251235401969</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.642530641460547</v>
+        <v>4.458351105210199</v>
       </c>
       <c r="D16">
-        <v>10.4150724789488</v>
+        <v>10.67559698302267</v>
       </c>
       <c r="E16">
-        <v>13.60037108308624</v>
+        <v>14.480483342722</v>
       </c>
       <c r="F16">
-        <v>18.56489416240499</v>
+        <v>27.1306449649577</v>
       </c>
       <c r="G16">
-        <v>16.97336442135234</v>
+        <v>24.71666002103226</v>
       </c>
       <c r="H16">
-        <v>6.852625056515306</v>
+        <v>13.30975595413149</v>
       </c>
       <c r="I16">
-        <v>11.26540300563009</v>
+        <v>18.53120721125502</v>
       </c>
       <c r="J16">
-        <v>6.670355468121336</v>
+        <v>9.716891912467448</v>
       </c>
       <c r="K16">
-        <v>30.31203655135724</v>
+        <v>19.06090615346012</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.78902434439</v>
+        <v>19.71253181396792</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.516840194543604</v>
+        <v>4.397201164131139</v>
       </c>
       <c r="D17">
-        <v>10.23757556551589</v>
+        <v>10.63318279616492</v>
       </c>
       <c r="E17">
-        <v>13.37624591348739</v>
+        <v>14.43770565461331</v>
       </c>
       <c r="F17">
-        <v>18.40476824810251</v>
+        <v>27.16732536853569</v>
       </c>
       <c r="G17">
-        <v>16.79862593985276</v>
+        <v>24.78518744576975</v>
       </c>
       <c r="H17">
-        <v>6.898666471972168</v>
+        <v>13.33822608562426</v>
       </c>
       <c r="I17">
-        <v>11.22547140652988</v>
+        <v>18.56874455653691</v>
       </c>
       <c r="J17">
-        <v>6.612417635638505</v>
+        <v>9.716354327038299</v>
       </c>
       <c r="K17">
-        <v>29.70283618398752</v>
+        <v>18.75534643345901</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.81156895255264</v>
+        <v>19.76324067310474</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.443489257544935</v>
+        <v>4.361572250586491</v>
       </c>
       <c r="D18">
-        <v>10.13442672556378</v>
+        <v>10.60883897869702</v>
       </c>
       <c r="E18">
-        <v>13.24637232353306</v>
+        <v>14.41330609547759</v>
       </c>
       <c r="F18">
-        <v>18.31564477933567</v>
+        <v>27.18933109837121</v>
       </c>
       <c r="G18">
-        <v>16.70386441679971</v>
+        <v>24.82587173498049</v>
       </c>
       <c r="H18">
-        <v>6.926188366728795</v>
+        <v>13.35488161497848</v>
       </c>
       <c r="I18">
-        <v>11.20495002841385</v>
+        <v>18.59091582624804</v>
       </c>
       <c r="J18">
-        <v>6.579317714421644</v>
+        <v>9.716202146449717</v>
       </c>
       <c r="K18">
-        <v>29.34699726294855</v>
+        <v>18.57715676884601</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.8274241693688</v>
+        <v>19.79300061397988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.418472250812454</v>
+        <v>4.349430985166711</v>
       </c>
       <c r="D19">
-        <v>10.09932227041235</v>
+        <v>10.60060607409577</v>
       </c>
       <c r="E19">
-        <v>13.20223647786979</v>
+        <v>14.40508064023398</v>
       </c>
       <c r="F19">
-        <v>18.28597795866708</v>
+        <v>27.19693751851065</v>
       </c>
       <c r="G19">
-        <v>16.67276049702043</v>
+        <v>24.83986385326178</v>
       </c>
       <c r="H19">
-        <v>6.935680835381267</v>
+        <v>13.36056901451366</v>
       </c>
       <c r="I19">
-        <v>11.19841573910263</v>
+        <v>18.59852219843835</v>
       </c>
       <c r="J19">
-        <v>6.568149668181704</v>
+        <v>9.716177612904934</v>
       </c>
       <c r="K19">
-        <v>29.22557974571765</v>
+        <v>18.51640851515998</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.83327635242331</v>
+        <v>19.80317860897219</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.53032954349702</v>
+        <v>4.403758121467773</v>
       </c>
       <c r="D20">
-        <v>10.25658020492681</v>
+        <v>10.63769265388599</v>
       </c>
       <c r="E20">
-        <v>13.40020463155069</v>
+        <v>14.4422383354426</v>
       </c>
       <c r="F20">
-        <v>18.42150529296872</v>
+        <v>27.16332661426746</v>
       </c>
       <c r="G20">
-        <v>16.81663143903529</v>
+        <v>24.77776103084249</v>
       </c>
       <c r="H20">
-        <v>6.893656533342791</v>
+        <v>13.33516638249757</v>
       </c>
       <c r="I20">
-        <v>11.22946754828715</v>
+        <v>18.5646884884872</v>
       </c>
       <c r="J20">
-        <v>6.618562106666535</v>
+        <v>9.716395308079766</v>
       </c>
       <c r="K20">
-        <v>29.76824951198919</v>
+        <v>18.78812693687823</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.80886723566383</v>
+        <v>19.75778116244078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.893533460357883</v>
+        <v>4.580788682363524</v>
       </c>
       <c r="D21">
-        <v>10.77220935776207</v>
+        <v>10.76287078230329</v>
       </c>
       <c r="E21">
-        <v>14.05368350097588</v>
+        <v>14.56948784248892</v>
       </c>
       <c r="F21">
-        <v>18.91257822377923</v>
+        <v>27.06127159528333</v>
       </c>
       <c r="G21">
-        <v>17.3689633576605</v>
+        <v>24.58433069116108</v>
       </c>
       <c r="H21">
-        <v>6.765242700152557</v>
+        <v>13.25316647840282</v>
       </c>
       <c r="I21">
-        <v>11.36346693037352</v>
+        <v>18.45796488522577</v>
       </c>
       <c r="J21">
-        <v>6.790587808634037</v>
+        <v>9.719001001218599</v>
       </c>
       <c r="K21">
-        <v>31.5266506216809</v>
+        <v>19.67172592402779</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.76226120492626</v>
+        <v>19.61235492707079</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.121527872690435</v>
+        <v>4.692302209889373</v>
       </c>
       <c r="D22">
-        <v>11.09949838680747</v>
+        <v>10.84500495869327</v>
       </c>
       <c r="E22">
-        <v>14.47173421486697</v>
+        <v>14.65434143029663</v>
       </c>
       <c r="F22">
-        <v>19.26045394238677</v>
+        <v>27.00272767269061</v>
       </c>
       <c r="G22">
-        <v>17.78187538691076</v>
+        <v>24.46940574810386</v>
       </c>
       <c r="H22">
-        <v>6.691684425901273</v>
+        <v>13.20207342610158</v>
       </c>
       <c r="I22">
-        <v>11.47412406021308</v>
+        <v>18.39342886886594</v>
       </c>
       <c r="J22">
-        <v>6.904914743280692</v>
+        <v>9.722096459074265</v>
       </c>
       <c r="K22">
-        <v>32.62782880439762</v>
+        <v>20.22694474741921</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.76022650321323</v>
+        <v>19.52263070203141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.000699084119215</v>
+        <v>4.633173482399677</v>
       </c>
       <c r="D23">
-        <v>10.92571772125714</v>
+        <v>10.80114547752781</v>
       </c>
       <c r="E23">
-        <v>14.24945835051042</v>
+        <v>14.60890568565643</v>
       </c>
       <c r="F23">
-        <v>19.07230550024404</v>
+        <v>27.03322428692659</v>
       </c>
       <c r="G23">
-        <v>17.55672518317775</v>
+        <v>24.52968249750643</v>
       </c>
       <c r="H23">
-        <v>6.729938713180998</v>
+        <v>13.22911397405208</v>
       </c>
       <c r="I23">
-        <v>11.41289379830954</v>
+        <v>18.42739382803241</v>
       </c>
       <c r="J23">
-        <v>6.84372710724038</v>
+        <v>9.720317247627126</v>
       </c>
       <c r="K23">
-        <v>32.04448239480845</v>
+        <v>19.93267441547862</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.75858213179476</v>
+        <v>19.57002969490355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.524234403685823</v>
+        <v>4.400795192999888</v>
       </c>
       <c r="D24">
-        <v>10.24799164108419</v>
+        <v>10.63565361902672</v>
       </c>
       <c r="E24">
-        <v>13.38937606983722</v>
+        <v>14.44018850495133</v>
       </c>
       <c r="F24">
-        <v>18.41392933821003</v>
+        <v>27.16513159331646</v>
       </c>
       <c r="G24">
-        <v>16.80847341623455</v>
+        <v>24.78111450633261</v>
       </c>
       <c r="H24">
-        <v>6.895918261497651</v>
+        <v>13.33654877821261</v>
       </c>
       <c r="I24">
-        <v>11.22765332049609</v>
+        <v>18.56652039777637</v>
       </c>
       <c r="J24">
-        <v>6.615783538202797</v>
+        <v>9.716376291810789</v>
       </c>
       <c r="K24">
-        <v>29.73869359843082</v>
+        <v>18.77331471204736</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.8100796978659</v>
+        <v>19.76024751759618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.969885740165584</v>
+        <v>4.132758165425978</v>
       </c>
       <c r="D25">
-        <v>9.4768266813364</v>
+        <v>10.45920127665603</v>
       </c>
       <c r="E25">
-        <v>12.42528648395711</v>
+        <v>14.2661139027255</v>
       </c>
       <c r="F25">
-        <v>17.81707458542644</v>
+        <v>27.34208971294769</v>
       </c>
       <c r="G25">
-        <v>16.21945263191928</v>
+        <v>25.10073183432582</v>
       </c>
       <c r="H25">
-        <v>7.114203913882738</v>
+        <v>13.46314859058611</v>
       </c>
       <c r="I25">
-        <v>11.12040313929454</v>
+        <v>18.7387704582477</v>
       </c>
       <c r="J25">
-        <v>6.378559077219281</v>
+        <v>9.718130776756897</v>
       </c>
       <c r="K25">
-        <v>27.04325627033523</v>
+        <v>17.42995494914596</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.97443347201575</v>
+        <v>19.98810188452471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.921224538834813</v>
+        <v>5.526930805876173</v>
       </c>
       <c r="D2">
-        <v>10.33175560687762</v>
+        <v>8.876772986497025</v>
       </c>
       <c r="E2">
-        <v>14.14541887378391</v>
+        <v>11.68768361529995</v>
       </c>
       <c r="F2">
-        <v>27.50182019754018</v>
+        <v>17.47104849517856</v>
       </c>
       <c r="G2">
-        <v>25.37668772468433</v>
+        <v>15.96243577362772</v>
       </c>
       <c r="H2">
-        <v>13.56558100888579</v>
+        <v>7.303580302069306</v>
       </c>
       <c r="I2">
-        <v>18.88446172054069</v>
+        <v>11.11285462197264</v>
       </c>
       <c r="J2">
-        <v>9.724607741583178</v>
+        <v>6.211886776832051</v>
       </c>
       <c r="K2">
-        <v>16.36480086728358</v>
+        <v>24.87738487661466</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.17521814148836</v>
+        <v>11.17448447264601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.769521156566517</v>
+        <v>5.205154089345389</v>
       </c>
       <c r="D3">
-        <v>10.24728290284371</v>
+        <v>8.451644034459656</v>
       </c>
       <c r="E3">
-        <v>14.06860491544868</v>
+        <v>11.17295579314056</v>
       </c>
       <c r="F3">
-        <v>27.62822780942313</v>
+        <v>17.29190137967859</v>
       </c>
       <c r="G3">
-        <v>25.5885374952674</v>
+        <v>15.88962496313339</v>
       </c>
       <c r="H3">
-        <v>13.64075277874275</v>
+        <v>7.447606613948149</v>
       </c>
       <c r="I3">
-        <v>18.99485909703471</v>
+        <v>11.14772087189638</v>
       </c>
       <c r="J3">
-        <v>9.732238681792538</v>
+        <v>6.104212366377674</v>
       </c>
       <c r="K3">
-        <v>15.59808833808076</v>
+        <v>23.29580770220297</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.31402466094038</v>
+        <v>11.35232841934254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.672465037595984</v>
+        <v>4.99703204375185</v>
       </c>
       <c r="D4">
-        <v>10.19646961889086</v>
+        <v>8.182235496860699</v>
       </c>
       <c r="E4">
-        <v>14.02399882712069</v>
+        <v>10.85063779045354</v>
       </c>
       <c r="F4">
-        <v>27.71472700142449</v>
+        <v>17.20795728749412</v>
       </c>
       <c r="G4">
-        <v>25.73069384691065</v>
+        <v>15.89108968093559</v>
       </c>
       <c r="H4">
-        <v>13.68974684905275</v>
+        <v>7.543144949825346</v>
       </c>
       <c r="I4">
-        <v>19.06835994336339</v>
+        <v>11.18724579340098</v>
       </c>
       <c r="J4">
-        <v>9.738524504181113</v>
+        <v>6.040799915277558</v>
       </c>
       <c r="K4">
-        <v>15.10632208220523</v>
+        <v>22.2685254274612</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.40514592377729</v>
+        <v>11.48017438699489</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.631966836922608</v>
+        <v>4.90959009481247</v>
       </c>
       <c r="D5">
-        <v>10.17604519987967</v>
+        <v>8.070475355073636</v>
       </c>
       <c r="E5">
-        <v>14.00647937647123</v>
+        <v>10.7178981691164</v>
       </c>
       <c r="F5">
-        <v>27.75219929036929</v>
+        <v>17.18008617686494</v>
       </c>
       <c r="G5">
-        <v>25.79163615331798</v>
+        <v>15.9026492287354</v>
       </c>
       <c r="H5">
-        <v>13.71042609611806</v>
+        <v>7.583779437573221</v>
       </c>
       <c r="I5">
-        <v>19.09974423156537</v>
+        <v>11.20766469454312</v>
       </c>
       <c r="J5">
-        <v>9.741488669719246</v>
+        <v>6.015651539106122</v>
       </c>
       <c r="K5">
-        <v>14.90084397973922</v>
+        <v>21.83578136280667</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.44375695808005</v>
+        <v>11.53665247712829</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.625186088731983</v>
+        <v>4.894912355956885</v>
       </c>
       <c r="D6">
-        <v>10.17267130066281</v>
+        <v>8.051802750135284</v>
       </c>
       <c r="E6">
-        <v>14.00361043018565</v>
+        <v>10.69577864375897</v>
       </c>
       <c r="F6">
-        <v>27.75855548538901</v>
+        <v>17.17583414472434</v>
       </c>
       <c r="G6">
-        <v>25.80193678994758</v>
+        <v>15.90521074957841</v>
       </c>
       <c r="H6">
-        <v>13.71390298128276</v>
+        <v>7.590627223490236</v>
       </c>
       <c r="I6">
-        <v>19.10504190810152</v>
+        <v>11.21130852744889</v>
       </c>
       <c r="J6">
-        <v>9.742005189766493</v>
+        <v>6.011517880329807</v>
       </c>
       <c r="K6">
-        <v>14.86642425886728</v>
+        <v>21.76307257504957</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.45025747874125</v>
+        <v>11.54628645325737</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.67192264815723</v>
+        <v>4.995863386783766</v>
       </c>
       <c r="D7">
-        <v>10.19619300174851</v>
+        <v>8.180736061803271</v>
       </c>
       <c r="E7">
-        <v>14.02375987121999</v>
+        <v>10.84885299287802</v>
       </c>
       <c r="F7">
-        <v>27.71522337892554</v>
+        <v>17.20755605330491</v>
       </c>
       <c r="G7">
-        <v>25.73150357201687</v>
+        <v>15.89120208856727</v>
       </c>
       <c r="H7">
-        <v>13.69002284651594</v>
+        <v>7.543686176263857</v>
       </c>
       <c r="I7">
-        <v>19.0687774114051</v>
+        <v>11.1875040332117</v>
       </c>
       <c r="J7">
-        <v>9.738562849474816</v>
+        <v>6.040457933642215</v>
       </c>
       <c r="K7">
-        <v>15.10357120825168</v>
+        <v>22.26274642430466</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.40566066446528</v>
+        <v>11.48091873223386</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.869748867915773</v>
+        <v>5.418182864547505</v>
       </c>
       <c r="D8">
-        <v>10.30242147084157</v>
+        <v>8.732000284925602</v>
       </c>
       <c r="E8">
-        <v>14.11841158619497</v>
+        <v>11.51161082499602</v>
       </c>
       <c r="F8">
-        <v>27.5435551211712</v>
+        <v>17.40375082616331</v>
       </c>
       <c r="G8">
-        <v>25.44721123539117</v>
+        <v>15.92737916915313</v>
       </c>
       <c r="H8">
-        <v>13.59091117271554</v>
+        <v>7.351712096372924</v>
       </c>
       <c r="I8">
-        <v>18.92133708111048</v>
+        <v>11.12097088612259</v>
       </c>
       <c r="J8">
-        <v>9.726906883074399</v>
+        <v>6.174208900390782</v>
       </c>
       <c r="K8">
-        <v>16.10490843713621</v>
+        <v>24.34371862247</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.22185325061334</v>
+        <v>11.23174258645842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.225307269550791</v>
+        <v>6.162028214067066</v>
       </c>
       <c r="D9">
-        <v>10.51830241977484</v>
+        <v>9.741784431451224</v>
       </c>
       <c r="E9">
-        <v>14.32363393584636</v>
+        <v>12.7546274504394</v>
       </c>
       <c r="F9">
-        <v>27.27788179471771</v>
+        <v>18.00329096788195</v>
       </c>
       <c r="G9">
-        <v>24.98669011797944</v>
+        <v>16.38948444462359</v>
       </c>
       <c r="H9">
-        <v>13.41907162908514</v>
+        <v>7.035905629149372</v>
       </c>
       <c r="I9">
-        <v>18.677803195653</v>
+        <v>11.14485647790271</v>
       </c>
       <c r="J9">
-        <v>9.716735483961573</v>
+        <v>6.457265515998641</v>
       </c>
       <c r="K9">
-        <v>17.89457083493884</v>
+        <v>27.97925024952981</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.90833322528667</v>
+        <v>10.90582945330057</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.465266375492308</v>
+        <v>6.656729629928769</v>
       </c>
       <c r="D10">
-        <v>10.68044327352582</v>
+        <v>10.43518171156276</v>
       </c>
       <c r="E10">
-        <v>14.48539189574181</v>
+        <v>13.62581307926583</v>
       </c>
       <c r="F10">
-        <v>27.12658276840904</v>
+        <v>18.58357071153689</v>
       </c>
       <c r="G10">
-        <v>24.70901319003152</v>
+        <v>16.99408541664205</v>
       </c>
       <c r="H10">
-        <v>13.30654529988185</v>
+        <v>6.847515937420458</v>
       </c>
       <c r="I10">
-        <v>18.5270027807821</v>
+        <v>11.27029562315386</v>
       </c>
       <c r="J10">
-        <v>9.716974513741858</v>
+        <v>6.676996623236077</v>
       </c>
       <c r="K10">
-        <v>19.09544002879056</v>
+        <v>30.38081437968985</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.70682612443444</v>
+        <v>10.78685249002832</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.569559659042902</v>
+        <v>6.870545754332339</v>
       </c>
       <c r="D11">
-        <v>10.75473844097327</v>
+        <v>10.7393590129839</v>
       </c>
       <c r="E11">
-        <v>14.56114165841566</v>
+        <v>14.01185929259842</v>
       </c>
       <c r="F11">
-        <v>27.06741035260248</v>
+        <v>18.87919324428125</v>
       </c>
       <c r="G11">
-        <v>24.59619783636018</v>
+        <v>17.33015360438179</v>
       </c>
       <c r="H11">
-        <v>13.25833437486849</v>
+        <v>6.772977553459317</v>
       </c>
       <c r="I11">
-        <v>18.46457718923851</v>
+        <v>11.35345789951992</v>
       </c>
       <c r="J11">
-        <v>9.718750898245553</v>
+        <v>6.779328674080537</v>
       </c>
       <c r="K11">
-        <v>19.61575993144636</v>
+        <v>31.41551574638771</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.62146880934766</v>
+        <v>10.76366644282835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.608336150573902</v>
+        <v>6.949903265579345</v>
       </c>
       <c r="D12">
-        <v>10.78292942104152</v>
+        <v>10.85288157229211</v>
       </c>
       <c r="E12">
-        <v>14.59011781029012</v>
+        <v>14.15649998797031</v>
       </c>
       <c r="F12">
-        <v>27.04640138421247</v>
+        <v>18.99575670548253</v>
       </c>
       <c r="G12">
-        <v>24.55544665649753</v>
+        <v>17.46632550821563</v>
       </c>
       <c r="H12">
-        <v>13.24050657589022</v>
+        <v>6.74651566470449</v>
       </c>
       <c r="I12">
-        <v>18.44183201445918</v>
+        <v>11.38889662397622</v>
       </c>
       <c r="J12">
-        <v>9.719662556557159</v>
+        <v>6.818406231455211</v>
       </c>
       <c r="K12">
-        <v>19.80897884561086</v>
+        <v>31.79908718587903</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.59005817820074</v>
+        <v>10.75973242170192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.600017083388022</v>
+        <v>6.932883711190033</v>
       </c>
       <c r="D13">
-        <v>10.77685577334964</v>
+        <v>10.82850699401047</v>
       </c>
       <c r="E13">
-        <v>14.58386464269635</v>
+        <v>14.12541875528819</v>
       </c>
       <c r="F13">
-        <v>27.05086369458545</v>
+        <v>18.97044648537273</v>
       </c>
       <c r="G13">
-        <v>24.56413511005557</v>
+        <v>17.43660107568522</v>
       </c>
       <c r="H13">
-        <v>13.24432704065868</v>
+        <v>6.752133548111264</v>
       </c>
       <c r="I13">
-        <v>18.44669073354749</v>
+        <v>11.38108585366388</v>
       </c>
       <c r="J13">
-        <v>9.719455600413051</v>
+        <v>6.809975873436472</v>
       </c>
       <c r="K13">
-        <v>19.76753650873419</v>
+        <v>31.7168439566028</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.59678236113111</v>
+        <v>10.7603578911474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.572764287055607</v>
+        <v>6.877106776350129</v>
       </c>
       <c r="D14">
-        <v>10.75705670236357</v>
+        <v>10.74873211986125</v>
       </c>
       <c r="E14">
-        <v>14.5635198208239</v>
+        <v>14.02379031008447</v>
       </c>
       <c r="F14">
-        <v>27.0656538513017</v>
+        <v>18.88869014488408</v>
       </c>
       <c r="G14">
-        <v>24.59280557913457</v>
+        <v>17.34117755749446</v>
       </c>
       <c r="H14">
-        <v>13.25685907811916</v>
+        <v>6.770764195724602</v>
       </c>
       <c r="I14">
-        <v>18.46268797665179</v>
+        <v>11.35629332514065</v>
       </c>
       <c r="J14">
-        <v>9.718821116583783</v>
+        <v>6.782537141793818</v>
       </c>
       <c r="K14">
-        <v>19.63173303980304</v>
+        <v>31.44723731036059</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.61886632377392</v>
+        <v>10.76324341079055</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.555977299811577</v>
+        <v>6.842732300764887</v>
       </c>
       <c r="D15">
-        <v>10.7449360278351</v>
+        <v>10.69965004369622</v>
       </c>
       <c r="E15">
-        <v>14.55109537194022</v>
+        <v>13.96133673201589</v>
       </c>
       <c r="F15">
-        <v>27.07489564541219</v>
+        <v>18.83921496522705</v>
       </c>
       <c r="G15">
-        <v>24.61062439411488</v>
+        <v>17.28389055444926</v>
       </c>
       <c r="H15">
-        <v>13.2645911467296</v>
+        <v>6.78241073529523</v>
       </c>
       <c r="I15">
-        <v>18.47260336423964</v>
+        <v>11.34162659745612</v>
       </c>
       <c r="J15">
-        <v>9.718463572523344</v>
+        <v>6.765772247701728</v>
       </c>
       <c r="K15">
-        <v>19.54805050748926</v>
+        <v>31.28102335197224</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.63251235401969</v>
+        <v>10.76565367436093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.458351105210199</v>
+        <v>6.642530641460443</v>
       </c>
       <c r="D16">
-        <v>10.67559698302267</v>
+        <v>10.41507247894885</v>
       </c>
       <c r="E16">
-        <v>14.480483342722</v>
+        <v>13.60037108308626</v>
       </c>
       <c r="F16">
-        <v>27.1306449649577</v>
+        <v>18.56489416240499</v>
       </c>
       <c r="G16">
-        <v>24.71666002103226</v>
+        <v>16.97336442135231</v>
       </c>
       <c r="H16">
-        <v>13.30975595413149</v>
+        <v>6.852625056515203</v>
       </c>
       <c r="I16">
-        <v>18.53120721125502</v>
+        <v>11.26540300563008</v>
       </c>
       <c r="J16">
-        <v>9.716891912467448</v>
+        <v>6.670355468121332</v>
       </c>
       <c r="K16">
-        <v>19.06090615346012</v>
+        <v>30.31203655135727</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.71253181396792</v>
+        <v>10.78902434438995</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.397201164131139</v>
+        <v>6.516840194543535</v>
       </c>
       <c r="D17">
-        <v>10.63318279616492</v>
+        <v>10.23757556551586</v>
       </c>
       <c r="E17">
-        <v>14.43770565461331</v>
+        <v>13.37624591348735</v>
       </c>
       <c r="F17">
-        <v>27.16732536853569</v>
+        <v>18.40476824810242</v>
       </c>
       <c r="G17">
-        <v>24.78518744576975</v>
+        <v>16.7986259398528</v>
       </c>
       <c r="H17">
-        <v>13.33822608562426</v>
+        <v>6.898666471972108</v>
       </c>
       <c r="I17">
-        <v>18.56874455653691</v>
+        <v>11.22547140652987</v>
       </c>
       <c r="J17">
-        <v>9.716354327038299</v>
+        <v>6.612417635638451</v>
       </c>
       <c r="K17">
-        <v>18.75534643345901</v>
+        <v>29.70283618398753</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.76324067310474</v>
+        <v>10.81156895255259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.361572250586491</v>
+        <v>6.443489257544911</v>
       </c>
       <c r="D18">
-        <v>10.60883897869702</v>
+        <v>10.1344267255638</v>
       </c>
       <c r="E18">
-        <v>14.41330609547759</v>
+        <v>13.24637232353309</v>
       </c>
       <c r="F18">
-        <v>27.18933109837121</v>
+        <v>18.31564477933568</v>
       </c>
       <c r="G18">
-        <v>24.82587173498049</v>
+        <v>16.7038644167997</v>
       </c>
       <c r="H18">
-        <v>13.35488161497848</v>
+        <v>6.926188366728729</v>
       </c>
       <c r="I18">
-        <v>18.59091582624804</v>
+        <v>11.20495002841385</v>
       </c>
       <c r="J18">
-        <v>9.716202146449717</v>
+        <v>6.579317714421645</v>
       </c>
       <c r="K18">
-        <v>18.57715676884601</v>
+        <v>29.34699726294854</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.79300061397988</v>
+        <v>10.82742416936879</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.349430985166711</v>
+        <v>6.418472250812508</v>
       </c>
       <c r="D19">
-        <v>10.60060607409577</v>
+        <v>10.09932227041228</v>
       </c>
       <c r="E19">
-        <v>14.40508064023398</v>
+        <v>13.20223647786974</v>
       </c>
       <c r="F19">
-        <v>27.19693751851065</v>
+        <v>18.28597795866701</v>
       </c>
       <c r="G19">
-        <v>24.83986385326178</v>
+        <v>16.67276049702035</v>
       </c>
       <c r="H19">
-        <v>13.36056901451366</v>
+        <v>6.935680835381267</v>
       </c>
       <c r="I19">
-        <v>18.59852219843835</v>
+        <v>11.1984157391026</v>
       </c>
       <c r="J19">
-        <v>9.716177612904934</v>
+        <v>6.568149668181718</v>
       </c>
       <c r="K19">
-        <v>18.51640851515998</v>
+        <v>29.22557974571768</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.80317860897219</v>
+        <v>10.83327635242329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.403758121467773</v>
+        <v>6.530329543496951</v>
       </c>
       <c r="D20">
-        <v>10.63769265388599</v>
+        <v>10.25658020492675</v>
       </c>
       <c r="E20">
-        <v>14.4422383354426</v>
+        <v>13.4002046315507</v>
       </c>
       <c r="F20">
-        <v>27.16332661426746</v>
+        <v>18.42150529296866</v>
       </c>
       <c r="G20">
-        <v>24.77776103084249</v>
+        <v>16.8166314390352</v>
       </c>
       <c r="H20">
-        <v>13.33516638249757</v>
+        <v>6.893656533342895</v>
       </c>
       <c r="I20">
-        <v>18.5646884884872</v>
+        <v>11.22946754828713</v>
       </c>
       <c r="J20">
-        <v>9.716395308079766</v>
+        <v>6.618562106666569</v>
       </c>
       <c r="K20">
-        <v>18.78812693687823</v>
+        <v>29.76824951198923</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.75778116244078</v>
+        <v>10.80886723566378</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.580788682363524</v>
+        <v>6.893533460357898</v>
       </c>
       <c r="D21">
-        <v>10.76287078230329</v>
+        <v>10.7722093577621</v>
       </c>
       <c r="E21">
-        <v>14.56948784248892</v>
+        <v>14.05368350097588</v>
       </c>
       <c r="F21">
-        <v>27.06127159528333</v>
+        <v>18.91257822377925</v>
       </c>
       <c r="G21">
-        <v>24.58433069116108</v>
+        <v>17.36896335766056</v>
       </c>
       <c r="H21">
-        <v>13.25316647840282</v>
+        <v>6.765242700152562</v>
       </c>
       <c r="I21">
-        <v>18.45796488522577</v>
+        <v>11.36346693037354</v>
       </c>
       <c r="J21">
-        <v>9.719001001218599</v>
+        <v>6.790587808634039</v>
       </c>
       <c r="K21">
-        <v>19.67172592402779</v>
+        <v>31.52665062168087</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.61235492707079</v>
+        <v>10.7622612049263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.692302209889373</v>
+        <v>7.121527872690288</v>
       </c>
       <c r="D22">
-        <v>10.84500495869327</v>
+        <v>11.09949838680745</v>
       </c>
       <c r="E22">
-        <v>14.65434143029663</v>
+        <v>14.47173421486696</v>
       </c>
       <c r="F22">
-        <v>27.00272767269061</v>
+        <v>19.26045394238674</v>
       </c>
       <c r="G22">
-        <v>24.46940574810386</v>
+        <v>17.78187538691072</v>
       </c>
       <c r="H22">
-        <v>13.20207342610158</v>
+        <v>6.691684425901245</v>
       </c>
       <c r="I22">
-        <v>18.39342886886594</v>
+        <v>11.47412406021307</v>
       </c>
       <c r="J22">
-        <v>9.722096459074265</v>
+        <v>6.904914743280716</v>
       </c>
       <c r="K22">
-        <v>20.22694474741921</v>
+        <v>32.62782880439762</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.52263070203141</v>
+        <v>10.76022650321319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.633173482399677</v>
+        <v>7.000699084119316</v>
       </c>
       <c r="D23">
-        <v>10.80114547752781</v>
+        <v>10.9257177212571</v>
       </c>
       <c r="E23">
-        <v>14.60890568565643</v>
+        <v>14.24945835051043</v>
       </c>
       <c r="F23">
-        <v>27.03322428692659</v>
+        <v>19.07230550024405</v>
       </c>
       <c r="G23">
-        <v>24.52968249750643</v>
+        <v>17.55672518317775</v>
       </c>
       <c r="H23">
-        <v>13.22911397405208</v>
+        <v>6.729938713181005</v>
       </c>
       <c r="I23">
-        <v>18.42739382803241</v>
+        <v>11.41289379830953</v>
       </c>
       <c r="J23">
-        <v>9.720317247627126</v>
+        <v>6.843727107240402</v>
       </c>
       <c r="K23">
-        <v>19.93267441547862</v>
+        <v>32.04448239480848</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.57002969490355</v>
+        <v>10.75858213179477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.400795192999888</v>
+        <v>6.524234403685838</v>
       </c>
       <c r="D24">
-        <v>10.63565361902672</v>
+        <v>10.2479916410842</v>
       </c>
       <c r="E24">
-        <v>14.44018850495133</v>
+        <v>13.38937606983724</v>
       </c>
       <c r="F24">
-        <v>27.16513159331646</v>
+        <v>18.41392933821006</v>
       </c>
       <c r="G24">
-        <v>24.78111450633261</v>
+        <v>16.80847341623459</v>
       </c>
       <c r="H24">
-        <v>13.33654877821261</v>
+        <v>6.895918261497655</v>
       </c>
       <c r="I24">
-        <v>18.56652039777637</v>
+        <v>11.22765332049613</v>
       </c>
       <c r="J24">
-        <v>9.716376291810789</v>
+        <v>6.615783538202831</v>
       </c>
       <c r="K24">
-        <v>18.77331471204736</v>
+        <v>29.73869359843083</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.76024751759618</v>
+        <v>10.81007969786592</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.132758165425978</v>
+        <v>5.9698857401656</v>
       </c>
       <c r="D25">
-        <v>10.45920127665603</v>
+        <v>9.476826681336384</v>
       </c>
       <c r="E25">
-        <v>14.2661139027255</v>
+        <v>12.42528648395709</v>
       </c>
       <c r="F25">
-        <v>27.34208971294769</v>
+        <v>17.8170745854264</v>
       </c>
       <c r="G25">
-        <v>25.10073183432582</v>
+        <v>16.2194526319191</v>
       </c>
       <c r="H25">
-        <v>13.46314859058611</v>
+        <v>7.114203913882783</v>
       </c>
       <c r="I25">
-        <v>18.7387704582477</v>
+        <v>11.12040313929452</v>
       </c>
       <c r="J25">
-        <v>9.718130776756897</v>
+        <v>6.378559077219268</v>
       </c>
       <c r="K25">
-        <v>17.42995494914596</v>
+        <v>27.04325627033523</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.98810188452471</v>
+        <v>10.97443347201572</v>
       </c>
     </row>
   </sheetData>
